--- a/DaySale_2025-05-27_22-46.xlsx
+++ b/DaySale_2025-05-27_22-46.xlsx
@@ -260,6 +260,15 @@
     <t>200.00</t>
   </si>
   <si>
+    <t>DALACIN 2% VAGINAL CREAM 16.5 GM</t>
+  </si>
+  <si>
+    <t>58.50</t>
+  </si>
+  <si>
+    <t>58.5000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -663,6 +672,12 @@
   </si>
   <si>
     <t>28.00</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>10:0</t>
   </si>
   <si>
     <t>VARDE 20 MG 4 F.C. TABS</t>
@@ -2161,7 +2176,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2171,14 +2186,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>85</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2204,14 +2219,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2220,14 +2235,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2237,14 +2252,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2253,14 +2268,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2270,14 +2285,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>96</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>65</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2310,7 +2325,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2326,7 +2341,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2340,7 +2355,7 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>35</v>
@@ -2352,14 +2367,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2369,11 +2384,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>35</v>
@@ -2392,7 +2407,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2409,7 +2424,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2425,7 +2440,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2439,7 +2454,7 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2451,14 +2466,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2468,11 +2483,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2491,7 +2506,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2508,7 +2523,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2524,7 +2539,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2557,24 +2572,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2583,31 +2598,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>123</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2623,7 +2638,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2637,10 +2652,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q43" s="12">
         <v>126</v>
-      </c>
-      <c t="s" r="Q43" s="12">
-        <v>35</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2656,7 +2671,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2666,11 +2681,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>35</v>
@@ -2682,14 +2697,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2699,14 +2714,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2715,14 +2730,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2739,7 +2754,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2772,7 +2787,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2788,7 +2803,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2805,7 +2820,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2821,7 +2836,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2854,7 +2869,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2868,10 +2883,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2880,14 +2895,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2897,14 +2912,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2920,7 +2935,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2953,13 +2968,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2992,7 +3007,7 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3025,7 +3040,7 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3036,7 +3051,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3052,7 +3067,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3062,14 +3077,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3078,31 +3093,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>55</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>170</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3111,14 +3126,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3128,14 +3143,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q58" s="12">
         <v>173</v>
-      </c>
-      <c t="s" r="Q58" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3151,7 +3166,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3161,11 +3176,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3177,14 +3192,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3194,14 +3209,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3223,15 +3238,15 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>99</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>35</v>
@@ -3243,31 +3258,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>91</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3276,14 +3291,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3293,14 +3308,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>118</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3309,14 +3324,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3326,14 +3341,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3342,14 +3357,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3359,11 +3374,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3375,7 +3390,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3392,11 +3407,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>55</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3432,7 +3447,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3448,7 +3463,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>196</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3458,14 +3473,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>123</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3474,14 +3489,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3498,7 +3513,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3514,7 +3529,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3531,7 +3546,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3547,7 +3562,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>182</v>
+        <v>94</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3557,14 +3572,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>61</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>126</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3573,14 +3588,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3590,14 +3605,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>61</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3606,14 +3621,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3623,11 +3638,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3646,7 +3661,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3663,7 +3678,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3689,14 +3704,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3705,14 +3720,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3722,14 +3737,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>39</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3738,14 +3753,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3755,14 +3770,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>168</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3771,14 +3786,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>222</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3788,14 +3803,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3804,7 +3819,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3821,11 +3836,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3837,7 +3852,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3854,14 +3869,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>179</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3877,7 +3892,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3887,14 +3902,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>117</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3903,31 +3918,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>182</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3936,31 +3951,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3969,14 +3984,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3986,14 +4001,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>180</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4002,14 +4017,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4019,14 +4034,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>242</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4056,10 +4071,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>246</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4068,14 +4083,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4085,14 +4100,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>247</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4101,14 +4116,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4118,14 +4133,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
+        <v>250</v>
+      </c>
+      <c t="s" r="Q88" s="12">
         <v>251</v>
-      </c>
-      <c t="s" r="Q88" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4141,7 +4156,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>253</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4151,11 +4166,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4174,7 +4189,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4184,11 +4199,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4200,14 +4215,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4217,11 +4232,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4233,14 +4248,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>258</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4250,11 +4265,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4266,14 +4281,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>261</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4283,49 +4298,115 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>129</v>
+        <v>237</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
-      <c r="P94" s="13">
-        <v>4801.96</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="14">
-        <v>261</v>
-      </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c t="s" r="G95" s="15">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
         <v>262</v>
       </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c t="s" r="K95" s="17">
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
         <v>263</v>
       </c>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>50</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>237</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>238</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>264</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>12</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>50</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>132</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>265</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="P96" s="13">
+        <v>4891.46</v>
+      </c>
+      <c r="Q96" s="13"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="14">
+        <v>266</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c t="s" r="G97" s="15">
+        <v>267</v>
+      </c>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c t="s" r="K97" s="17">
+        <v>268</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
+  <mergeCells count="457">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4769,10 +4850,20 @@
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
     <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="K97:Q97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-27_22-46.xlsx
+++ b/DaySale_2025-05-27_22-46.xlsx
@@ -168,6 +168,15 @@
   </si>
   <si>
     <t>80.0000</t>
+  </si>
+  <si>
+    <t>CALCIMA 30 SOFT CHEWS PIECES</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
   </si>
   <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
@@ -1780,7 +1789,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1790,14 +1799,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1806,14 +1815,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1846,7 +1855,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1863,7 +1872,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1889,11 +1898,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1905,14 +1914,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1922,11 +1931,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1938,14 +1947,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1955,11 +1964,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1978,7 +1987,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2011,7 +2020,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2044,7 +2053,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2087,11 +2096,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2103,7 +2112,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2120,11 +2129,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2136,31 +2145,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2169,31 +2178,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2209,7 +2218,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2219,14 +2228,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2252,14 +2261,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2268,14 +2277,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2285,14 +2294,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2301,14 +2310,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2318,14 +2327,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>99</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>65</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2358,7 +2367,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2374,7 +2383,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2388,7 +2397,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>35</v>
@@ -2400,14 +2409,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2417,11 +2426,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>35</v>
@@ -2440,7 +2449,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2457,7 +2466,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2473,7 +2482,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2487,7 +2496,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2499,14 +2508,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2516,11 +2525,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2539,7 +2548,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2556,7 +2565,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2572,7 +2581,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2605,24 +2614,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2631,31 +2640,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>126</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2671,7 +2680,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2685,10 +2694,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>129</v>
-      </c>
-      <c t="s" r="Q44" s="12">
-        <v>35</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2704,7 +2713,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2714,11 +2723,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>35</v>
@@ -2730,14 +2739,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2747,14 +2756,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2763,14 +2772,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2787,7 +2796,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2820,7 +2829,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2836,7 +2845,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2853,7 +2862,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2869,7 +2878,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2902,7 +2911,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2916,10 +2925,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2928,14 +2937,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2945,14 +2954,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2968,7 +2977,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3001,13 +3010,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3040,7 +3049,7 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3073,7 +3082,7 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3084,7 +3093,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3100,7 +3109,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3110,14 +3119,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>55</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3126,31 +3135,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>58</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>173</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3159,14 +3168,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3176,14 +3185,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q59" s="12">
         <v>176</v>
-      </c>
-      <c t="s" r="Q59" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3199,7 +3208,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3209,11 +3218,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3225,14 +3234,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3242,14 +3251,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3271,15 +3280,15 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>102</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>35</v>
@@ -3291,31 +3300,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3324,14 +3333,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3341,14 +3350,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>121</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3357,14 +3366,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3374,14 +3383,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3390,14 +3399,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3407,11 +3416,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3423,7 +3432,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3440,11 +3449,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3480,7 +3489,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3496,7 +3505,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>199</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3506,14 +3515,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>126</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3522,14 +3531,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>202</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3546,7 +3555,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3562,7 +3571,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3579,7 +3588,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3595,7 +3604,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>185</v>
+        <v>97</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3605,14 +3614,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>61</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>129</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3621,14 +3630,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3638,14 +3647,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>64</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3654,14 +3663,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3671,11 +3680,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3694,7 +3703,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3711,7 +3720,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3727,7 +3736,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3737,14 +3746,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3753,14 +3762,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3770,14 +3779,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>178</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>39</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3786,14 +3795,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>222</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3803,14 +3812,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3819,14 +3828,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3836,11 +3845,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3852,14 +3861,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3869,14 +3878,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3885,14 +3894,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3902,14 +3911,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3918,14 +3927,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3935,14 +3944,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>229</v>
+        <v>120</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>182</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3958,7 +3967,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>232</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3968,14 +3977,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>32</v>
+        <v>185</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3984,31 +3993,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4017,14 +4026,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4034,11 +4043,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4050,14 +4059,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4071,10 +4080,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>183</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4083,7 +4092,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4100,14 +4109,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>247</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4133,14 +4142,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
+        <v>249</v>
+      </c>
+      <c t="s" r="Q88" s="12">
         <v>250</v>
-      </c>
-      <c t="s" r="Q88" s="12">
-        <v>251</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4149,14 +4158,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4166,14 +4175,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>254</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4182,14 +4191,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4199,7 +4208,7 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
@@ -4222,7 +4231,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>258</v>
+        <v>23</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4232,11 +4241,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4248,14 +4257,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>261</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4265,11 +4274,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4281,14 +4290,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>261</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4298,11 +4307,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4314,14 +4323,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4331,11 +4340,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4347,14 +4356,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>266</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4364,49 +4373,82 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>132</v>
+        <v>240</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
-      <c r="P96" s="13">
-        <v>4891.46</v>
-      </c>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="14">
-        <v>266</v>
-      </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c t="s" r="G97" s="15">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
         <v>267</v>
       </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c t="s" r="K97" s="17">
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>12</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>50</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>135</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
         <v>268</v>
       </c>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
+      <c t="s" r="Q96" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>5021.46</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>269</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>270</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>271</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="457">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4860,10 +4902,15 @@
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
     <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-27_22-46.xlsx
+++ b/DaySale_2025-05-27_22-46.xlsx
@@ -281,7 +281,7 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>7:2</t>
+    <t>7:1</t>
   </si>
   <si>
     <t>11.8800</t>
@@ -551,6 +551,12 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>MEMEXA 10MG 10 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
     <t>MEPAFURAN 50 MG 20 CAPS</t>
   </si>
   <si>
@@ -563,6 +569,12 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>OLFEN 50MG 20 LACTAB</t>
   </si>
   <si>
@@ -768,9 +780,6 @@
   </si>
   <si>
     <t>3.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
   </si>
   <si>
     <t>9:0</t>
@@ -3241,7 +3250,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3251,14 +3260,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3267,14 +3276,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3284,14 +3293,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3300,28 +3309,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>105</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>35</v>
@@ -3333,14 +3342,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>97</v>
+        <v>189</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3350,14 +3359,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3373,21 +3382,21 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>30</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>35</v>
@@ -3399,14 +3408,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3416,14 +3425,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>28</v>
+        <v>156</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3432,14 +3441,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3449,14 +3458,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3465,14 +3474,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3482,7 +3491,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>28</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3515,14 +3524,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>58</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3531,14 +3540,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>202</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3548,14 +3557,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>129</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3564,14 +3573,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3581,14 +3590,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3597,14 +3606,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>97</v>
+        <v>206</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3614,14 +3623,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>30</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3630,14 +3639,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>188</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3647,14 +3656,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>64</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>132</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3670,7 +3679,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3684,10 +3693,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>105</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3696,14 +3705,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>192</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3713,14 +3722,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>64</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3729,14 +3738,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3746,14 +3755,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3762,14 +3771,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3779,14 +3788,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3795,14 +3804,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3812,11 +3821,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>39</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>35</v>
@@ -3835,7 +3844,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>225</v>
+        <v>68</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3845,14 +3854,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>105</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3868,7 +3877,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3878,14 +3887,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>174</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3901,7 +3910,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>229</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3911,14 +3920,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>227</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3927,7 +3936,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3944,11 +3953,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3960,7 +3969,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3977,14 +3986,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>185</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3993,14 +4002,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4010,14 +4019,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>120</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4026,31 +4035,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>239</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>189</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4059,31 +4068,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4092,14 +4101,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4109,14 +4118,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>186</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4125,14 +4134,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>247</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4142,14 +4151,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>250</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4158,7 +4167,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4175,14 +4184,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>254</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4191,14 +4200,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4208,14 +4217,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>254</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4224,14 +4233,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4241,14 +4250,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>257</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4257,14 +4266,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>261</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4274,11 +4283,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4290,14 +4299,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4307,11 +4316,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4340,11 +4349,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4363,7 +4372,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>266</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4373,11 +4382,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4389,14 +4398,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>267</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4406,49 +4415,115 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>135</v>
+        <v>244</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
+        <v>245</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
         <v>268</v>
       </c>
-      <c t="s" r="Q96" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>5021.46</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
         <v>269</v>
       </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>50</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>244</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>245</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
         <v>270</v>
       </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>12</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>50</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>135</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
         <v>271</v>
       </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c t="s" r="Q98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>5048.46</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>272</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>273</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>274</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4907,10 +4982,20 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
